--- a/(development)/IT/Spytac w pracy/pytaniaExpaceo.xlsx
+++ b/(development)/IT/Spytac w pracy/pytaniaExpaceo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\code source all confondu\projecty do nauki\linkedin-skill-assessments-quizzes\(development)\IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\IT\Spytac w pracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A74426-FE67-4B8F-A777-8C555A39CF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B737BEA-1775-4F6E-8AE5-146DAE014BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">facture pour le examtopics 35$ possible ? </t>
   </si>
   <si>
-    <t xml:space="preserve">soap faire le plus rapidement, comment faire ? </t>
+    <t xml:space="preserve">mon prochain exam c'est az-400 ? </t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/(development)/IT/Spytac w pracy/pytaniaExpaceo.xlsx
+++ b/(development)/IT/Spytac w pracy/pytaniaExpaceo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\IT\Spytac w pracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B737BEA-1775-4F6E-8AE5-146DAE014BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789178AF-3D15-4F57-B970-2030A5CA8B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>nie widze Pluralsight</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve">mon prochain exam c'est az-400 ? </t>
+  </si>
+  <si>
+    <t>nie umoiem zastosowac patch</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,6 +377,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
